--- a/Doc/xlsx/Buff.xlsx
+++ b/Doc/xlsx/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25095" windowHeight="12180"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,128 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>15349</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">1 改变属性
+2 伤害
+3 召唤</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">1替换
+2只能有一个
+3直接叠加</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">1增
+2减</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">1 固定值
+2 百分比
+3 npc自适应
+4 bullet自适应
+召唤的npc id</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">配合calType
+数值
+百分数
+npc 不填
+bullet 不填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">同序列可叠加
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">1 生命
+2 移动速度
+3 攻击速度
+4 攻击力
+5 物理防御
+6 魔法防御</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>title</t>
   </si>
@@ -27,55 +147,64 @@
     <t>logicId</t>
   </si>
   <si>
+    <t>attrType</t>
+  </si>
+  <si>
+    <t>modType</t>
+  </si>
+  <si>
+    <t>calType</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>jumpTime</t>
+  </si>
+  <si>
     <t>series</t>
   </si>
   <si>
-    <t>hurtType</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>jumpTime</t>
+    <t>pileType</t>
   </si>
   <si>
     <t>maxPileCount</t>
   </si>
   <si>
-    <t>pileType</t>
-  </si>
-  <si>
-    <t>actionID</t>
-  </si>
-  <si>
-    <t>actionType</t>
-  </si>
-  <si>
     <t>注释</t>
   </si>
   <si>
-    <t>逻辑方式</t>
-  </si>
-  <si>
-    <t>序列类型(同序列可叠加)</t>
-  </si>
-  <si>
-    <t>伤害类型（1增、2减）</t>
-  </si>
-  <si>
-    <t>持续时间/秒</t>
-  </si>
-  <si>
-    <t>间隔时间/秒</t>
-  </si>
-  <si>
-    <t>最大叠加数</t>
-  </si>
-  <si>
-    <t>叠加类型（1替换、2只能有一个、3直接叠加）</t>
-  </si>
-  <si>
-    <t>actionType（1开始时、2循环、3效果、4结束时）</t>
+    <t>逻辑</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>增减</t>
+  </si>
+  <si>
+    <t>计算方式</t>
+  </si>
+  <si>
+    <t>数值</t>
+  </si>
+  <si>
+    <t>持续/秒</t>
+  </si>
+  <si>
+    <t>间隔/秒</t>
+  </si>
+  <si>
+    <t>序列</t>
+  </si>
+  <si>
+    <t>叠加类型</t>
+  </si>
+  <si>
+    <t>叠加数</t>
   </si>
   <si>
     <t>string</t>
@@ -87,13 +216,13 @@
     <t>""</t>
   </si>
   <si>
-    <t>普通伤害,Pawn引发</t>
+    <t>npc攻击伤害</t>
   </si>
   <si>
     <t>治疗</t>
   </si>
   <si>
-    <t>普通伤害,子弹引发</t>
+    <t>子弹伤害</t>
   </si>
   <si>
     <t>生蜘蛛</t>
@@ -105,11 +234,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -124,14 +253,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,51 +358,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -200,14 +368,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,55 +388,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,187 +405,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,9 +601,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,32 +682,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -579,148 +701,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,22 +1166,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1093,8 +1221,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1128,80 +1259,89 @@
       <c r="K2" t="s">
         <v>10</v>
       </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1233,132 +1373,147 @@
       <c r="K5">
         <v>0</v>
       </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>1001</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>1002</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
       <c r="K7">
         <v>1</v>
       </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>2001</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>3001</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+      <c r="C9">
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2011</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>1</v>
       </c>
     </row>
@@ -1366,6 +1521,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
